--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/材料表-水专业.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/材料表-水专业.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\kelly0917\Deploy\ReportTemplates\管道综合材料表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\中石油\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35020F4-90A9-4C44-B87E-158A6C954D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28FDAF-C4EF-482A-A86C-081FFE9EF902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1 (2)" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="C_EN_LongDesc">'Sheet1 (2)'!$H$7:$J$7</definedName>
+    <definedName name="C_EN_LongDesc">'Sheet1 (2)'!$B$6</definedName>
     <definedName name="_xlnm.Database" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Database" hidden="1">#REF!</definedName>
-    <definedName name="DesignQty">'Sheet1 (2)'!$M$7</definedName>
-    <definedName name="P_EN_SizeDesc">'Sheet1 (2)'!$E$7</definedName>
-    <definedName name="P_Seq">'Sheet1 (2)'!$A$7</definedName>
-    <definedName name="T_Desc">'Sheet1 (2)'!$B$7:$D$7</definedName>
-    <definedName name="T_Unit">'Sheet1 (2)'!$L$7</definedName>
+    <definedName name="DesignQty">'Sheet1 (2)'!$M$6</definedName>
+    <definedName name="P_EN_SizeDesc">'Sheet1 (2)'!$E$6</definedName>
+    <definedName name="P_Seq">'Sheet1 (2)'!$A$6</definedName>
+    <definedName name="T_Desc">'Sheet1 (2)'!$K$6</definedName>
+    <definedName name="T_Unit">'Sheet1 (2)'!$L$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1131,6 +1131,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,102 +1247,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1786,119 +1786,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="69" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1919,21 +1919,21 @@
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="48">
         <v>2</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="48">
         <v>3</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16">
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="48">
         <v>4</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="7">
         <v>5</v>
       </c>
@@ -1952,15 +1952,15 @@
     </row>
     <row r="8" spans="1:15" ht="27.95" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1971,21 +1971,21 @@
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9" t="s">
         <v>17</v>
@@ -2000,15 +2000,15 @@
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
@@ -2017,15 +2017,15 @@
     </row>
     <row r="11" spans="1:15" ht="34.5" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
@@ -2034,15 +2034,15 @@
     </row>
     <row r="12" spans="1:15" ht="34.5" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
@@ -2051,15 +2051,15 @@
     </row>
     <row r="13" spans="1:15" ht="34.5" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
@@ -2068,15 +2068,15 @@
     </row>
     <row r="14" spans="1:15" ht="34.5" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
@@ -2085,15 +2085,15 @@
     </row>
     <row r="15" spans="1:15" ht="34.5" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
@@ -2102,15 +2102,15 @@
     </row>
     <row r="16" spans="1:15" ht="34.5" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
@@ -2119,15 +2119,15 @@
     </row>
     <row r="17" spans="1:15" ht="34.5" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
@@ -2136,15 +2136,15 @@
     </row>
     <row r="18" spans="1:15" ht="34.5" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
@@ -2153,15 +2153,15 @@
     </row>
     <row r="19" spans="1:15" ht="34.5" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="11"/>
@@ -2170,15 +2170,15 @@
     </row>
     <row r="20" spans="1:15" ht="34.5" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="11"/>
@@ -2187,15 +2187,15 @@
     </row>
     <row r="21" spans="1:15" ht="34.5" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -2204,15 +2204,15 @@
     </row>
     <row r="22" spans="1:15" ht="34.5" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -2220,94 +2220,137 @@
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" ht="79.5" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="A23:O27"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
@@ -2324,49 +2367,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/材料表-水专业.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/材料表-水专业.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\中石油\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28FDAF-C4EF-482A-A86C-081FFE9EF902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2F1C9-9EDE-4E52-82D0-A180A8BE08A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="T_Desc">'Sheet1 (2)'!$K$6</definedName>
     <definedName name="T_Unit">'Sheet1 (2)'!$L$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1131,6 +1131,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,9 +1203,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1203,50 +1245,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1786,119 +1786,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="44" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="34" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" ht="69" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="45" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1915,25 +1915,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1">
+    <row r="7" spans="1:15" ht="29.25" customHeight="1">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="48">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="48">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16">
         <v>4</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="7">
         <v>5</v>
       </c>
@@ -1950,42 +1950,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="27.95" customHeight="1">
+    <row r="8" spans="1:15" ht="29.25" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15" ht="34.5" customHeight="1">
+    <row r="9" spans="1:15" ht="29.25" customHeight="1">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="40" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9" t="s">
         <v>17</v>
@@ -1998,221 +1998,221 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34.5" customHeight="1">
+    <row r="10" spans="1:15" ht="29.25" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" ht="34.5" customHeight="1">
+    <row r="11" spans="1:15" ht="29.25" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15" ht="34.5" customHeight="1">
+    <row r="12" spans="1:15" ht="29.25" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="34.5" customHeight="1">
+    <row r="13" spans="1:15" ht="29.25" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" ht="34.5" customHeight="1">
+    <row r="14" spans="1:15" ht="29.25" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="34.5" customHeight="1">
+    <row r="15" spans="1:15" ht="29.25" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="34.5" customHeight="1">
+    <row r="16" spans="1:15" ht="29.25" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" ht="34.5" customHeight="1">
+    <row r="17" spans="1:15" ht="29.25" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="34.5" customHeight="1">
+    <row r="18" spans="1:15" ht="29.25" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" ht="34.5" customHeight="1">
+    <row r="19" spans="1:15" ht="29.25" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="11"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" ht="34.5" customHeight="1">
+    <row r="20" spans="1:15" ht="29.25" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="11"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" ht="34.5" customHeight="1">
+    <row r="21" spans="1:15" ht="29.25" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" ht="34.5" customHeight="1">
+    <row r="22" spans="1:15" ht="29.25" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -2220,137 +2220,94 @@
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
     </row>
     <row r="25" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
     </row>
     <row r="26" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="32"/>
     </row>
     <row r="27" spans="1:15" ht="79.5" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
     <mergeCell ref="A23:O27"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
@@ -2367,6 +2324,49 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/材料表-水专业.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/材料表-水专业.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\中石油\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2F1C9-9EDE-4E52-82D0-A180A8BE08A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61939F68-2F1E-49A1-A5C7-3EB610296676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1 (2)" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="AllowanceQty">'Sheet1 (2)'!$H$6</definedName>
     <definedName name="C_EN_LongDesc">'Sheet1 (2)'!$B$6</definedName>
     <definedName name="_xlnm.Database" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Database" hidden="1">#REF!</definedName>
@@ -25,7 +26,7 @@
     <definedName name="T_Desc">'Sheet1 (2)'!$K$6</definedName>
     <definedName name="T_Unit">'Sheet1 (2)'!$L$6</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1131,6 +1132,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,102 +1248,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1765,7 +1766,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1786,119 +1787,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="69" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1919,21 +1920,21 @@
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="48">
         <v>2</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="48">
         <v>3</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16">
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="48">
         <v>4</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="7">
         <v>5</v>
       </c>
@@ -1952,15 +1953,15 @@
     </row>
     <row r="8" spans="1:15" ht="29.25" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1971,21 +1972,21 @@
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9" t="s">
         <v>17</v>
@@ -2000,15 +2001,15 @@
     </row>
     <row r="10" spans="1:15" ht="29.25" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
@@ -2017,15 +2018,15 @@
     </row>
     <row r="11" spans="1:15" ht="29.25" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
@@ -2034,15 +2035,15 @@
     </row>
     <row r="12" spans="1:15" ht="29.25" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
@@ -2051,15 +2052,15 @@
     </row>
     <row r="13" spans="1:15" ht="29.25" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
@@ -2068,15 +2069,15 @@
     </row>
     <row r="14" spans="1:15" ht="29.25" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
@@ -2085,15 +2086,15 @@
     </row>
     <row r="15" spans="1:15" ht="29.25" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
@@ -2102,15 +2103,15 @@
     </row>
     <row r="16" spans="1:15" ht="29.25" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
@@ -2119,15 +2120,15 @@
     </row>
     <row r="17" spans="1:15" ht="29.25" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
@@ -2136,15 +2137,15 @@
     </row>
     <row r="18" spans="1:15" ht="29.25" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
@@ -2153,15 +2154,15 @@
     </row>
     <row r="19" spans="1:15" ht="29.25" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="11"/>
@@ -2170,15 +2171,15 @@
     </row>
     <row r="20" spans="1:15" ht="29.25" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="11"/>
@@ -2187,15 +2188,15 @@
     </row>
     <row r="21" spans="1:15" ht="29.25" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -2204,15 +2205,15 @@
     </row>
     <row r="22" spans="1:15" ht="29.25" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -2220,94 +2221,137 @@
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" ht="79.5" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="A23:O27"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
@@ -2324,49 +2368,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
